--- a/Data/recovered_cases.xlsx
+++ b/Data/recovered_cases.xlsx
@@ -26507,7 +26507,7 @@
         <v>18</v>
       </c>
       <c r="E1466">
-        <v>82.62000000000001</v>
+        <v>82.62</v>
       </c>
     </row>
     <row r="1467">
